--- a/InputData/bldgs/SoBCaICbIC/Shr of Bldg Cap and Instl Costs by ISIC Code.xlsx
+++ b/InputData/bldgs/SoBCaICbIC/Shr of Bldg Cap and Instl Costs by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\bldgs\SoBCaICbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\bldgs\SoBCaICbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9DDD6A-EE2B-467B-813D-2B7069B42CBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4448133-E82C-4976-9599-9CCDC816C525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="585" windowWidth="24090" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="435" windowWidth="26295" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="624">
   <si>
     <t>Notes</t>
   </si>
@@ -2219,6 +2219,12 @@
   </si>
   <si>
     <t>ISIC 21</t>
+  </si>
+  <si>
+    <t>ISIC 05</t>
+  </si>
+  <si>
+    <t>ISIC 06</t>
   </si>
 </sst>
 </file>
@@ -3525,7 +3531,7 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AM7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3534,7 +3540,7 @@
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>617</v>
       </c>
@@ -3542,115 +3548,118 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>622</v>
       </c>
       <c r="D1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>620</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>621</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>55</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>56</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>70</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>72</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>73</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>74</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>492</v>
       </c>
@@ -3724,11 +3733,11 @@
       </c>
       <c r="S2">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!S$1)</f>
-        <v>0.54557663658145084</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!T$1)</f>
-        <v>0</v>
+        <v>0.54557663658145084</v>
       </c>
       <c r="U2">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!U$1)</f>
@@ -3744,11 +3753,11 @@
       </c>
       <c r="X2">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!X$1)</f>
-        <v>0.45442336341854916</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Y$1)</f>
-        <v>0</v>
+        <v>0.45442336341854916</v>
       </c>
       <c r="Z2">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Z$1)</f>
@@ -3802,8 +3811,12 @@
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AL$1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM2">
+        <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AM$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>493</v>
       </c>
@@ -3877,11 +3890,11 @@
       </c>
       <c r="S3">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!S$1)</f>
-        <v>0.76199981922600579</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!T$1)</f>
-        <v>0</v>
+        <v>0.76199981922600579</v>
       </c>
       <c r="U3">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!U$1)</f>
@@ -3897,11 +3910,11 @@
       </c>
       <c r="X3">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!X$1)</f>
-        <v>0.23800018077399421</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Y$1)</f>
-        <v>0</v>
+        <v>0.23800018077399421</v>
       </c>
       <c r="Z3">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Z$1)</f>
@@ -3955,8 +3968,12 @@
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AL$1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM3">
+        <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AM$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
         <v>605</v>
       </c>
@@ -4108,8 +4125,12 @@
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A4,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AL$1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM4">
+        <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A4,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AM$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
         <v>499</v>
       </c>
@@ -4179,11 +4200,11 @@
       </c>
       <c r="R5">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A5,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!R$1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A5,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!S$1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A5,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!T$1)</f>
@@ -4261,8 +4282,12 @@
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A5,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AL$1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM5">
+        <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A5,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AM$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
         <v>561</v>
       </c>
@@ -4332,11 +4357,11 @@
       </c>
       <c r="R6">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!R$1)</f>
-        <v>0.7542031594839681</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!S$1)</f>
-        <v>0</v>
+        <v>0.7542031594839681</v>
       </c>
       <c r="T6">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!T$1)</f>
@@ -4356,11 +4381,11 @@
       </c>
       <c r="X6">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!X$1)</f>
-        <v>0.2457968405160319</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Y$1)</f>
-        <v>0</v>
+        <v>0.2457968405160319</v>
       </c>
       <c r="Z6">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Z$1)</f>
@@ -4414,8 +4439,12 @@
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AL$1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM6">
+        <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AM$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
         <v>82</v>
       </c>
@@ -4485,11 +4514,11 @@
       </c>
       <c r="R7">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!R$1)</f>
-        <v>0.7542031594839681</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!S$1)</f>
-        <v>0</v>
+        <v>0.7542031594839681</v>
       </c>
       <c r="T7">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!T$1)</f>
@@ -4509,11 +4538,11 @@
       </c>
       <c r="X7">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!X$1)</f>
-        <v>0.2457968405160319</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Y$1)</f>
-        <v>0</v>
+        <v>0.2457968405160319</v>
       </c>
       <c r="Z7">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Z$1)</f>
@@ -4565,6 +4594,10 @@
       </c>
       <c r="AL7">
         <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AL$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <f>SUMIFS('Cost Breakdowns'!$D$3:$D$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AM$1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4578,7 +4611,7 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AM7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4587,7 +4620,7 @@
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>617</v>
       </c>
@@ -4595,115 +4628,118 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>622</v>
       </c>
       <c r="D1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>620</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>621</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>55</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>56</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>70</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>72</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>73</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>74</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>492</v>
       </c>
@@ -4777,11 +4813,11 @@
       </c>
       <c r="S2">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!S$1)</f>
-        <v>0.70398750275034405</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!T$1)</f>
-        <v>0</v>
+        <v>0.70398750275034405</v>
       </c>
       <c r="U2">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!U$1)</f>
@@ -4797,11 +4833,11 @@
       </c>
       <c r="X2">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!X$1)</f>
-        <v>0.29601249724965595</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Y$1)</f>
-        <v>0</v>
+        <v>0.29601249724965595</v>
       </c>
       <c r="Z2">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Z$1)</f>
@@ -4855,8 +4891,12 @@
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AL$1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM2">
+        <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AM$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>493</v>
       </c>
@@ -4930,11 +4970,11 @@
       </c>
       <c r="S3">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!S$1)</f>
-        <v>0.5798301102469372</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!T$1)</f>
-        <v>0</v>
+        <v>0.5798301102469372</v>
       </c>
       <c r="U3">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!U$1)</f>
@@ -4950,11 +4990,11 @@
       </c>
       <c r="X3">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!X$1)</f>
-        <v>0.4201698897530628</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Y$1)</f>
-        <v>0</v>
+        <v>0.4201698897530628</v>
       </c>
       <c r="Z3">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Z$1)</f>
@@ -5008,8 +5048,12 @@
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AL$1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM3">
+        <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AM$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
         <v>605</v>
       </c>
@@ -5161,8 +5205,12 @@
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A4,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AL$1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM4">
+        <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A4,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AM$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
         <v>499</v>
       </c>
@@ -5232,11 +5280,11 @@
       </c>
       <c r="R5">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A5,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!R$1)</f>
-        <v>0.40766894664785691</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A5,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!S$1)</f>
-        <v>0</v>
+        <v>0.40766894664785691</v>
       </c>
       <c r="T5">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A5,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!T$1)</f>
@@ -5256,11 +5304,11 @@
       </c>
       <c r="X5">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A5,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!X$1)</f>
-        <v>0.59233105335214309</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A5,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Y$1)</f>
-        <v>0</v>
+        <v>0.59233105335214309</v>
       </c>
       <c r="Z5">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A5,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Z$1)</f>
@@ -5314,8 +5362,12 @@
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A5,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AL$1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM5">
+        <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A5,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AM$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
         <v>561</v>
       </c>
@@ -5385,11 +5437,11 @@
       </c>
       <c r="R6">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!R$1)</f>
-        <v>0.75439886948727197</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!S$1)</f>
-        <v>0</v>
+        <v>0.75439886948727197</v>
       </c>
       <c r="T6">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!T$1)</f>
@@ -5409,11 +5461,11 @@
       </c>
       <c r="X6">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!X$1)</f>
-        <v>0.24560113051272803</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Y$1)</f>
-        <v>0</v>
+        <v>0.24560113051272803</v>
       </c>
       <c r="Z6">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Z$1)</f>
@@ -5467,8 +5519,12 @@
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AL$1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM6">
+        <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AM$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
         <v>82</v>
       </c>
@@ -5538,11 +5594,11 @@
       </c>
       <c r="R7">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!R$1)</f>
-        <v>0.75439886948727197</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!S$1)</f>
-        <v>0</v>
+        <v>0.75439886948727197</v>
       </c>
       <c r="T7">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!T$1)</f>
@@ -5562,11 +5618,11 @@
       </c>
       <c r="X7">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!X$1)</f>
-        <v>0.24560113051272803</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Y$1)</f>
-        <v>0</v>
+        <v>0.24560113051272803</v>
       </c>
       <c r="Z7">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Z$1)</f>
@@ -5618,6 +5674,10 @@
       </c>
       <c r="AL7">
         <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AL$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <f>SUMIFS('Cost Breakdowns'!$E$3:$E$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AM$1)</f>
         <v>0</v>
       </c>
     </row>
@@ -36177,7 +36237,7 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AM7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -36186,7 +36246,7 @@
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>617</v>
       </c>
@@ -36194,115 +36254,118 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>622</v>
       </c>
       <c r="D1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>620</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>621</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>55</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>56</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>70</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>72</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>73</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>74</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>492</v>
       </c>
@@ -36376,11 +36439,11 @@
       </c>
       <c r="S2">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!S$1)</f>
-        <v>0.54557663658145084</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!T$1)</f>
-        <v>0</v>
+        <v>0.54557663658145084</v>
       </c>
       <c r="U2">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!U$1)</f>
@@ -36396,11 +36459,11 @@
       </c>
       <c r="X2">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!X$1)</f>
-        <v>0.45442336341854916</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Y$1)</f>
-        <v>0</v>
+        <v>0.45442336341854916</v>
       </c>
       <c r="Z2">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Z$1)</f>
@@ -36454,8 +36517,12 @@
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AL$1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM2">
+        <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A2,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AM$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>493</v>
       </c>
@@ -36529,11 +36596,11 @@
       </c>
       <c r="S3">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!S$1)</f>
-        <v>0.76199981922600579</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!T$1)</f>
-        <v>0</v>
+        <v>0.76199981922600579</v>
       </c>
       <c r="U3">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!U$1)</f>
@@ -36549,11 +36616,11 @@
       </c>
       <c r="X3">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!X$1)</f>
-        <v>0.23800018077399421</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Y$1)</f>
-        <v>0</v>
+        <v>0.23800018077399421</v>
       </c>
       <c r="Z3">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Z$1)</f>
@@ -36607,8 +36674,12 @@
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AL$1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM3">
+        <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A3,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AM$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
         <v>605</v>
       </c>
@@ -36760,8 +36831,12 @@
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A4,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AL$1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM4">
+        <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A4,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AM$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
         <v>499</v>
       </c>
@@ -36831,11 +36906,11 @@
       </c>
       <c r="R5">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A5,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!R$1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A5,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!S$1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A5,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!T$1)</f>
@@ -36913,8 +36988,12 @@
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A5,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AL$1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM5">
+        <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A5,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AM$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
         <v>561</v>
       </c>
@@ -36984,11 +37063,11 @@
       </c>
       <c r="R6">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!R$1)</f>
-        <v>0.7542031594839681</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!S$1)</f>
-        <v>0</v>
+        <v>0.7542031594839681</v>
       </c>
       <c r="T6">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!T$1)</f>
@@ -37008,11 +37087,11 @@
       </c>
       <c r="X6">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!X$1)</f>
-        <v>0.2457968405160319</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Y$1)</f>
-        <v>0</v>
+        <v>0.2457968405160319</v>
       </c>
       <c r="Z6">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Z$1)</f>
@@ -37066,8 +37145,12 @@
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AL$1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM6">
+        <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A6,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AM$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
         <v>82</v>
       </c>
@@ -37137,11 +37220,11 @@
       </c>
       <c r="R7">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!R$1)</f>
-        <v>0.7542031594839681</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!S$1)</f>
-        <v>0</v>
+        <v>0.7542031594839681</v>
       </c>
       <c r="T7">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!T$1)</f>
@@ -37161,11 +37244,11 @@
       </c>
       <c r="X7">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!X$1)</f>
-        <v>0.2457968405160319</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Y$1)</f>
-        <v>0</v>
+        <v>0.2457968405160319</v>
       </c>
       <c r="Z7">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!Z$1)</f>
@@ -37217,6 +37300,10 @@
       </c>
       <c r="AL7">
         <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AL$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <f>SUMIFS('Cost Breakdowns'!$C$3:$C$12,'Cost Breakdowns'!$A$3:$A$12,'SoBCaICbIC-urbanresidential'!$A7,'Cost Breakdowns'!$F$3:$F$12,'SoBCaICbIC-urbanresidential'!AM$1)</f>
         <v>0</v>
       </c>
     </row>
